--- a/data/events.xlsx
+++ b/data/events.xlsx
@@ -10735,7 +10735,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -10792,9 +10792,15 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -10807,30 +10813,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -10843,16 +10828,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -10867,11 +10852,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -10879,6 +10871,14 @@
       <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -10891,14 +10891,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
@@ -10906,16 +10898,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -10929,15 +10921,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -10954,7 +10947,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="51">
+  <fills count="43">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -11071,7 +11064,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -11083,7 +11094,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -11095,103 +11160,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -11204,54 +11197,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -11296,36 +11241,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -11351,11 +11266,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -11369,159 +11297,176 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -11927,11 +11872,11 @@
   <dimension ref="A1:N1564"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C344" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C385" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F362" sqref="F362"/>
+      <selection pane="bottomRight" activeCell="F394" sqref="F394"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.4416666666667" defaultRowHeight="30" customHeight="1"/>
@@ -18594,6 +18539,9 @@
       <c r="E393" s="4">
         <v>2</v>
       </c>
+      <c r="F393" s="4">
+        <v>10</v>
+      </c>
       <c r="K393" s="5" t="s">
         <v>1030</v>
       </c>
